--- a/src/test/resources/handler/sample-data.xlsx
+++ b/src/test/resources/handler/sample-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="14220" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="eng" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
     <t>https://contextures.com/xlsampledata01.html</t>
   </si>
   <si>
-    <t>sheet</t>
+    <t>chs</t>
   </si>
   <si>
     <t>generated by deepseek</t>
@@ -1023,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,9 +1046,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,8 +1745,8 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1764,1014 +1761,1014 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:7">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>44202</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>95</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>1.99</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>189.05</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>44219</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>50</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>19.99</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>999.5</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:7">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>44236</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>36</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>4.99</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>179.64</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:7">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>44253</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>27</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>19.99</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>539.73</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:7">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>44270</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>56</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>2.99</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>167.44</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>44287</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>60</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>4.99</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>299.4</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:7">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>44304</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>75</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>1.99</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>149.25</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:7">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>44321</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>90</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>4.99</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>449.1</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:7">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>44338</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>32</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>1.99</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>63.68</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:7">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>44355</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>60</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>8.99</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>539.4</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:7">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>44372</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>90</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>4.99</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <v>449.1</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>44389</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>29</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>1.99</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>57.71</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:7">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>44406</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>81</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>19.99</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>1619.19</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>44423</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>35</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>4.99</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <v>174.65</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:7">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>44440</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>2</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>125</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>250</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:7">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>44457</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>16</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>15.99</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>255.84</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:7">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>44474</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>28</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>8.99</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>251.72</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:7">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>44491</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>64</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>8.99</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>575.36</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:7">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>44508</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>15</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>19.99</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>299.85</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:7">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>44525</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>96</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>4.99</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>479.04</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:7">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>44542</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>67</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>1.29</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="25">
         <v>86.43</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:7">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>44559</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>74</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <v>15.99</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>1183.26</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:7">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>44576</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>46</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <v>8.99</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <v>413.54</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:7">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>44593</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>87</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>15</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="25">
         <v>1305</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:7">
-      <c r="A26" s="22">
+      <c r="A26" s="21">
         <v>44610</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>4</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>4.99</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>19.96</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:7">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>44627</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>7</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>19.99</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="25">
         <v>139.93</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="22">
+      <c r="A28" s="21">
         <v>44644</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>50</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>4.99</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="25">
         <v>249.5</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:7">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>44661</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>66</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <v>1.99</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>131.34</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:7">
-      <c r="A30" s="22">
+      <c r="A30" s="21">
         <v>44678</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>96</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <v>4.99</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="25">
         <v>479.04</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:7">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>44695</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>53</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>1.29</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <v>68.37</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:7">
-      <c r="A32" s="22">
+      <c r="A32" s="21">
         <v>44712</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>80</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="24">
         <v>8.99</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>719.2</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:7">
-      <c r="A33" s="22">
+      <c r="A33" s="21">
         <v>44729</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>5</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>125</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="25">
         <v>625</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:7">
-      <c r="A34" s="22">
+      <c r="A34" s="21">
         <v>44746</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>62</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="24">
         <v>4.99</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="25">
         <v>309.38</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:7">
-      <c r="A35" s="22">
+      <c r="A35" s="21">
         <v>44763</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>55</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="24">
         <v>12.49</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="25">
         <v>686.95</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:7">
-      <c r="A36" s="22">
+      <c r="A36" s="21">
         <v>44780</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <v>42</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="24">
         <v>23.95</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <v>1005.9</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:7">
-      <c r="A37" s="22">
+      <c r="A37" s="21">
         <v>44797</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>3</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="24">
         <v>275</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="25">
         <v>825</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:7">
-      <c r="A38" s="22">
+      <c r="A38" s="21">
         <v>44814</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>7</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="24">
         <v>1.29</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <v>9.03</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:7">
-      <c r="A39" s="22">
+      <c r="A39" s="21">
         <v>44831</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>76</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="24">
         <v>1.99</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="25">
         <v>151.24</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:7">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>44848</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>57</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="24">
         <v>19.99</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <v>1139.43</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:7">
-      <c r="A41" s="22">
+      <c r="A41" s="21">
         <v>44865</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <v>14</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="24">
         <v>1.29</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="25">
         <v>18.06</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:7">
-      <c r="A42" s="22">
+      <c r="A42" s="21">
         <v>44882</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <v>11</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="24">
         <v>4.99</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>54.89</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="22">
+      <c r="A43" s="21">
         <v>44899</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>94</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="24">
         <v>19.99</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="25">
         <v>1879.06</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:7">
-      <c r="A44" s="22">
+      <c r="A44" s="21">
         <v>44916</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>28</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="24">
         <v>4.99</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <v>139.72</v>
       </c>
     </row>
@@ -2789,7 +2786,7 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2804,1014 +2801,1014 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>44202</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>95</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>1.99</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>189.05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>44219</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>50</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>19.99</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>999.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>44236</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>36</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>1.99</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>71.64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>44253</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>27</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>9.99</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>269.73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>44270</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>56</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>1.99</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>111.44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>44287</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>60</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>19.99</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>1199.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>44304</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>75</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>1.99</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>149.25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>44321</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>90</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>1.99</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>179.1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>44338</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>32</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>1.99</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>63.68</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>44355</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>60</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>19.99</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>1199.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>44372</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>90</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>1.99</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>179.1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>44389</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>29</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>19.99</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>579.71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>44406</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>81</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>19.99</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>1619.19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>44423</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>35</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>1.99</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>69.65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>44440</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>149.99</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>299.98</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>44457</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>16</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>29.99</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>479.84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>44474</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>28</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>19.99</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>559.72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>44491</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>64</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>9.99</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>639.36</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>44508</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>15</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>9.99</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>149.85</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>44525</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>96</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>29.99</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>2879.04</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>44542</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>67</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>1.99</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>133.33</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>44559</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>74</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>29.99</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>2219.26</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>44576</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>46</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>19.99</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>919.54</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>44593</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>87</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>19.99</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>1739.13</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>44610</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>4</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>19.99</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>79.96</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>44627</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>7</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>19.99</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>139.93</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>44644</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>50</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>29.99</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>1499.5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>44661</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>66</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>1.99</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>131.34</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>44678</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>96</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>9.99</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>959.04</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>44695</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>53</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>1.99</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>105.47</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>44712</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>80</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>19.99</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>1599.2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>44729</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>5</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>149.99</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>749.95</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>44746</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>62</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>29.99</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>1859.38</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>44763</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>55</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>29.99</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>1649.45</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>44780</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>42</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>29.99</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>1259.58</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>44797</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>3</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>149.99</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>449.97</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <v>44814</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>7</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>1.99</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>13.93</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>44831</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>76</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>9.99</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>759.24</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <v>44848</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>57</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>19.99</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>1139.43</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <v>44865</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>14</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>1.99</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>27.86</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <v>44882</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>11</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>19.99</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>219.89</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <v>44899</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <v>94</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>19.99</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="13">
         <v>1879.06</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="15">
+      <c r="A44" s="14">
         <v>44916</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <v>28</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <v>19.99</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="16">
         <v>559.72</v>
       </c>
     </row>
@@ -3827,7 +3824,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -3863,11 +3860,11 @@
       <c r="B3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
